--- a/biology/Botanique/Cystoseira_zosteroides/Cystoseira_zosteroides.xlsx
+++ b/biology/Botanique/Cystoseira_zosteroides/Cystoseira_zosteroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ericaria zosteroides (synonymes : Cystoseira zosteroides, Carpodesmia zosteroides) est une espèce d’algues brunes de la famille des Sargassaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ericaria zosteroides a pour synonymes selon AlgaeBase                                           (21 janvier 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ericaria zosteroides a pour synonymes selon AlgaeBase                                           (21 janvier 2024) :
 synonymes homotypiques :
 Cystoseira zosteroides C.Agardh, 1821 (basionyme);
 Carpodesmia zosteroides (C.Agardh) Greville, 1830 ;
@@ -549,9 +563,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire de distribution s'étend entre les côtes de la mer Méditerranée et les îles Canaries[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de distribution s'étend entre les côtes de la mer Méditerranée et les îles Canaries.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se développe sur des rochers, entre 30 et 100 m de profondeur[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se développe sur des rochers, entre 30 et 100 m de profondeur.
 </t>
         </is>
       </c>
